--- a/Data/RemapDrafts/AyakaRemapDraft.xlsx
+++ b/Data/RemapDrafts/AyakaRemapDraft.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4C58DA-0D07-4A89-AA85-4FB18AF084FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E710E-1699-4618-9811-6EFCAC2FDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{28D9F790-F783-48FD-BEB4-7CBDC2AAB951}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4.8 - Ayaka to SpringBloom" sheetId="1" r:id="rId1"/>
-    <sheet name="V.48 - SpringBloom to Ayaka" sheetId="2" r:id="rId2"/>
+    <sheet name="V4.0 - Ayaka to SpringBloom" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.0 - SpringBloom to Ayaka" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V.48 - SpringBloom to Ayaka'!$A$1:$D$115</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.8 - Ayaka to SpringBloom'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.0 - Ayaka to SpringBloom'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V4.0 - SpringBloom to Ayaka'!$A$1:$D$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
